--- a/sriramModel-nelson-melancholic-patientID_33-sims-crh-5-iterations-p_stress.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_33-sims-crh-5-iterations-p_stress.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.077104389903093</v>
+        <v>1.241885585012705</v>
       </c>
       <c r="C2">
-        <v>1.003376193000215</v>
+        <v>1.088152119532617</v>
       </c>
       <c r="D2">
-        <v>1.037203969514006</v>
+        <v>1.017991028389063</v>
       </c>
       <c r="E2">
-        <v>1.020536279827227</v>
+        <v>1.036737490915919</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.027502588946264</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.1534162347344</v>
+        <v>1.480150169068772</v>
       </c>
       <c r="C3">
-        <v>1.006692149921577</v>
+        <v>1.175994472355056</v>
       </c>
       <c r="D3">
-        <v>1.073798743286523</v>
+        <v>1.035735462568451</v>
       </c>
       <c r="E3">
-        <v>1.040849232816597</v>
+        <v>1.072750708737699</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1.054722805207529</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.228948125319384</v>
+        <v>1.715372172276255</v>
       </c>
       <c r="C4">
-        <v>1.009949009252977</v>
+        <v>1.263533982505475</v>
       </c>
       <c r="D4">
-        <v>1.10981949769871</v>
+        <v>1.053240272072333</v>
       </c>
       <c r="E4">
-        <v>1.060942977154624</v>
+        <v>1.10806879764902</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1.081669224493588</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.303711366287273</v>
+        <v>1.947994266425237</v>
       </c>
       <c r="C5">
-        <v>1.013147872394617</v>
+        <v>1.350777291598066</v>
       </c>
       <c r="D5">
-        <v>1.145298056776499</v>
+        <v>1.070511782221587</v>
       </c>
       <c r="E5">
-        <v>1.080821508474027</v>
+        <v>1.142719010650081</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1.10834997115708</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.377716061804326</v>
+        <v>2.178364066256071</v>
       </c>
       <c r="C6">
-        <v>1.016289804017728</v>
+        <v>1.437730753427255</v>
       </c>
       <c r="D6">
-        <v>1.180263322680998</v>
+        <v>1.087555621875751</v>
       </c>
       <c r="E6">
-        <v>1.100488704650581</v>
+        <v>1.176726915486408</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1.13477274219001</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.450971191175076</v>
+        <v>2.406759345385407</v>
       </c>
       <c r="C7">
-        <v>1.01937583232737</v>
+        <v>1.524400461645982</v>
       </c>
       <c r="D7">
-        <v>1.214741637641077</v>
+        <v>1.104376771154181</v>
       </c>
       <c r="E7">
-        <v>1.119948330335738</v>
+        <v>1.210116459935294</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1.16094487448757</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.523484675561785</v>
+        <v>2.633406599946771</v>
       </c>
       <c r="C8">
-        <v>1.022406949226484</v>
+        <v>1.610792259450508</v>
       </c>
       <c r="D8">
-        <v>1.248757089903689</v>
+        <v>1.120979641417043</v>
       </c>
       <c r="E8">
-        <v>1.139204041224877</v>
+        <v>1.24291017384574</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1.186873324316814</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.595263436806514</v>
+        <v>2.858492791749702</v>
       </c>
       <c r="C9">
-        <v>1.02538411037341</v>
+        <v>1.696911751948048</v>
       </c>
       <c r="D9">
-        <v>1.282331774041512</v>
+        <v>1.137368010819491</v>
       </c>
       <c r="E9">
-        <v>1.158259388086515</v>
+        <v>1.275129277364224</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1.212564690567811</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.666313449240777</v>
+        <v>3.082173919839162</v>
       </c>
       <c r="C10">
-        <v>1.02830823513276</v>
+        <v>1.782764315688127</v>
       </c>
       <c r="D10">
-        <v>1.315486013621962</v>
+        <v>1.153545019653315</v>
       </c>
       <c r="E10">
-        <v>1.177117820557094</v>
+        <v>1.306793765203907</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1.238025249946882</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.736639785227893</v>
+        <v>3.304581845344057</v>
       </c>
       <c r="C11">
-        <v>1.031180206413049</v>
+        <v>1.868355110751563</v>
       </c>
       <c r="D11">
-        <v>1.348238552637124</v>
+        <v>1.169513203962651</v>
       </c>
       <c r="E11">
-        <v>1.195782690713806</v>
+        <v>1.337922508757377</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1.263260977136221</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.806246655083356</v>
+        <v>3.525828994508741</v>
       </c>
       <c r="C12">
-        <v>1.034000870383255</v>
+        <v>1.953689077137523</v>
       </c>
       <c r="D12">
-        <v>1.380606720860082</v>
+        <v>1.185274503636154</v>
       </c>
       <c r="E12">
-        <v>1.214257256433605</v>
+        <v>1.36853335030811</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1.28827755777141</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.875137441926412</v>
+        <v>3.746011748983278</v>
       </c>
       <c r="C13">
-        <v>1.03677103606334</v>
+        <v>2.038770952612387</v>
       </c>
       <c r="D13">
-        <v>1.412606577297163</v>
+        <v>1.200830249136408</v>
       </c>
       <c r="E13">
-        <v>1.232544684546113</v>
+        <v>1.398643178888295</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1.313080394605448</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.943314731940238</v>
+        <v>3.965213368017655</v>
       </c>
       <c r="C14">
-        <v>1.039491474779601</v>
+        <v>2.123605272269261</v>
       </c>
       <c r="D14">
-        <v>1.44425303512977</v>
+        <v>1.216181145452751</v>
       </c>
       <c r="E14">
-        <v>1.250648053786301</v>
+        <v>1.428267996864304</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1.337674620539271</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.010780340452128</v>
+        <v>4.183506237126117</v>
       </c>
       <c r="C15">
-        <v>1.042162919476175</v>
+        <v>2.20819637848694</v>
       </c>
       <c r="D15">
-        <v>1.475559970934291</v>
+        <v>1.231327251685747</v>
       </c>
       <c r="E15">
-        <v>1.268570357552049</v>
+        <v>1.457422983194912</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1.362065114722377</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.077535334188822</v>
+        <v>4.400953527979224</v>
       </c>
       <c r="C16">
-        <v>1.044786063872147</v>
+        <v>2.292548423449812</v>
       </c>
       <c r="D16">
-        <v>1.506540320462615</v>
+        <v>1.246267974394165</v>
       </c>
       <c r="E16">
-        <v>1.286314506469846</v>
+        <v>1.486122550095398</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1.38625650966147</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.143580050013722</v>
+        <v>4.617610525785593</v>
       </c>
       <c r="C17">
-        <v>1.047361561452473</v>
+        <v>2.376665366009192</v>
       </c>
       <c r="D17">
-        <v>1.537206162883862</v>
+        <v>1.261002041706857</v>
       </c>
       <c r="E17">
-        <v>1.303883330770412</v>
+        <v>1.514380396790253</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1.410253195072882</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.208914110410034</v>
+        <v>4.833525712802428</v>
       </c>
       <c r="C18">
-        <v>1.049890024279328</v>
+        <v>2.460550972989222</v>
       </c>
       <c r="D18">
-        <v>1.567568795054381</v>
+        <v>1.275527469669807</v>
       </c>
       <c r="E18">
-        <v>1.321279582474687</v>
+        <v>1.542209557819159</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1.434059333451993</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.273536435937469</v>
+        <v>5.048741638030999</v>
       </c>
       <c r="C19">
-        <v>1.052372021608643</v>
+        <v>2.544208816483289</v>
       </c>
       <c r="D19">
-        <v>1.597638797127044</v>
+        <v>1.289841562323162</v>
       </c>
       <c r="E19">
-        <v>1.338505937388695</v>
+        <v>1.569622446334838</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1.457678858466831</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.337445254858048</v>
+        <v>5.26329559387258</v>
       </c>
       <c r="C20">
-        <v>1.054808078294546</v>
+        <v>2.627642271315342</v>
       </c>
       <c r="D20">
-        <v>1.627426090591235</v>
+        <v>1.30394082957053</v>
       </c>
       <c r="E20">
-        <v>1.355564996903801</v>
+        <v>1.596630893988377</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1.481115478317081</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.400638110098659</v>
+        <v>5.477220137885833</v>
       </c>
       <c r="C21">
-        <v>1.057198672961998</v>
+        <v>2.710854510466077</v>
       </c>
       <c r="D21">
-        <v>1.656939989651164</v>
+        <v>1.317820989858468</v>
       </c>
       <c r="E21">
-        <v>1.372459289596749</v>
+        <v>1.623246187511558</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1.504372678739556</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.463111863693455</v>
+        <v>5.690543535494005</v>
       </c>
       <c r="C22">
-        <v>1.059544235925583</v>
+        <v>2.793848497369129</v>
       </c>
       <c r="D22">
-        <v>1.686189246703236</v>
+        <v>1.331476907557285</v>
       </c>
       <c r="E22">
-        <v>1.38919127262147</v>
+        <v>1.649479102246468</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1.527453724863304</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.52486269882814</v>
+        <v>5.903290101975079</v>
       </c>
       <c r="C23">
-        <v>1.061845146828493</v>
+        <v>2.876626977296806</v>
       </c>
       <c r="D23">
-        <v>1.71518209253669</v>
+        <v>1.344902559173673</v>
       </c>
       <c r="E23">
-        <v>1.4057633328817</v>
+        <v>1.67533993286418</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1.550361658907591</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.585886119588591</v>
+        <v>6.115480423639239</v>
       </c>
       <c r="C24">
-        <v>1.064101731973117</v>
+        <v>2.959192462588381</v>
       </c>
       <c r="D24">
-        <v>1.743926271774263</v>
+        <v>1.358090990331888</v>
       </c>
       <c r="E24">
-        <v>1.422177787969865</v>
+        <v>1.700838521514656</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1.573099298138706</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.646176948500999</v>
+        <v>6.327131505067241</v>
       </c>
       <c r="C25">
-        <v>1.066314261309909</v>
+        <v>3.041547218153795</v>
       </c>
       <c r="D25">
-        <v>1.772429073966503</v>
+        <v>1.371034261087541</v>
       </c>
       <c r="E25">
-        <v>1.438436886854287</v>
+        <v>1.725984283621508</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1.595669231968247</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.705729321935841</v>
+        <v>6.538256858920248</v>
       </c>
       <c r="C26">
-        <v>1.068482945046599</v>
+        <v>3.123693242982996</v>
       </c>
       <c r="D26">
-        <v>1.800697360664558</v>
+        <v>1.383723392208144</v>
       </c>
       <c r="E26">
-        <v>1.454542810291762</v>
+        <v>1.75078623185971</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1.618073814472204</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.764536683436172</v>
+        <v>6.748866539080845</v>
       </c>
       <c r="C27">
-        <v>1.070607929834222</v>
+        <v>3.205632248803331</v>
       </c>
       <c r="D27">
-        <v>1.828737588713074</v>
+        <v>1.39614831796354</v>
       </c>
       <c r="E27">
-        <v>1.470497670936941</v>
+        <v>1.775252996694309</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1.640315155077783</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.822591775020519</v>
+        <v>6.958967110886633</v>
       </c>
       <c r="C28">
-        <v>1.07268929447995</v>
+        <v>3.287365631939668</v>
       </c>
       <c r="D28">
-        <v>1.856555829921732</v>
+        <v>1.408297812463164</v>
       </c>
       <c r="E28">
-        <v>1.486303513113631</v>
+        <v>1.7993928469528</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1.662395113037049</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.879886626502507</v>
+        <v>7.168561560117598</v>
       </c>
       <c r="C29">
-        <v>1.074727045129094</v>
+        <v>3.368894442380808</v>
       </c>
       <c r="D29">
-        <v>1.884157787196851</v>
+        <v>1.420159443017373</v>
       </c>
       <c r="E29">
-        <v>1.501962312205007</v>
+        <v>1.823213707318629</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1.684315280996977</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.936412542863062</v>
+        <v>7.377649129698868</v>
       </c>
       <c r="C30">
-        <v>1.07672110984975</v>
+        <v>3.450219347412082</v>
       </c>
       <c r="D30">
-        <v>1.911548807127706</v>
+        <v>1.431719500682939</v>
       </c>
       <c r="E30">
-        <v>1.517475973609979</v>
+        <v>1.846723174257169</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1.706076968745507</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.992160089706965</v>
+        <v>7.586225088323555</v>
       </c>
       <c r="C31">
-        <v>1.078671332543061</v>
+        <v>3.531340589584378</v>
       </c>
       <c r="D31">
-        <v>1.938733888935325</v>
+        <v>1.442962940165322</v>
       </c>
       <c r="E31">
-        <v>1.532846331200862</v>
+        <v>1.869928530118894</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1.727681181631381</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3.04711907683357</v>
+        <v>7.794280442839517</v>
       </c>
       <c r="C32">
-        <v>1.080577466089668</v>
+        <v>3.612257933453892</v>
       </c>
       <c r="D32">
-        <v>1.965717689590644</v>
+        <v>1.45387331973445</v>
       </c>
       <c r="E32">
-        <v>1.548075145203694</v>
+        <v>1.892836755350284</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1.749128611575059</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3.101278539951917</v>
+        <v>8.001801577330694</v>
       </c>
       <c r="C33">
-        <v>1.082439164629149</v>
+        <v>3.692970607646119</v>
       </c>
       <c r="D33">
-        <v>1.992504524794389</v>
+        <v>1.464432735041551</v>
       </c>
       <c r="E33">
-        <v>1.563164099404329</v>
+        <v>1.915454538687383</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1.770419595378667</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3.154626720574311</v>
+        <v>8.208769812806969</v>
       </c>
       <c r="C34">
-        <v>1.084255974849739</v>
+        <v>3.773477237527738</v>
       </c>
       <c r="D34">
-        <v>2.019098365379489</v>
+        <v>1.474621762409774</v>
       </c>
       <c r="E34">
-        <v>1.578114797560668</v>
+        <v>1.937788284572321</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1.791554086468294</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3.207151044128814</v>
+        <v>8.415160880807647</v>
       </c>
       <c r="C35">
-        <v>1.086027326147964</v>
+        <v>3.853775766972504</v>
       </c>
       <c r="D35">
-        <v>2.045502828532838</v>
+        <v>1.484419396840075</v>
       </c>
       <c r="E35">
-        <v>1.592928758875556</v>
+        <v>1.959844120236727</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1.812531615199118</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>3.258838096341862</v>
+        <v>8.620944303147894</v>
       </c>
       <c r="C36">
-        <v>1.087752519491222</v>
+        <v>3.933863361161206</v>
       </c>
       <c r="D36">
-        <v>2.071721163043117</v>
+        <v>1.493803003235798</v>
       </c>
       <c r="E36">
-        <v>1.607607412349932</v>
+        <v>1.981627896754518</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1.833351266293289</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3.30967359795743</v>
+        <v>8.826082664927991</v>
       </c>
       <c r="C37">
-        <v>1.089430714789553</v>
+        <v>4.013736299453642</v>
       </c>
       <c r="D37">
-        <v>2.097756227537883</v>
+        <v>1.50274826340933</v>
       </c>
       <c r="E37">
-        <v>1.622152089792723</v>
+        <v>2.003145187275874</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1.854011598309985</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>3.359642377879829</v>
+        <v>9.03053079133025</v>
       </c>
       <c r="C38">
-        <v>1.091060916542942</v>
+        <v>4.093389852318353</v>
       </c>
       <c r="D38">
-        <v>2.123610460379283</v>
+        <v>1.511229134708969</v>
       </c>
       <c r="E38">
-        <v>1.636564017211303</v>
+        <v>2.024401281554993</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1.874510589334297</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>3.408728344854562</v>
+        <v>9.234234772843092</v>
       </c>
       <c r="C39">
-        <v>1.092641957479272</v>
+        <v>4.172818135953605</v>
       </c>
       <c r="D39">
-        <v>2.149285839518943</v>
+        <v>1.519217830665229</v>
       </c>
       <c r="E39">
-        <v>1.650844304238948</v>
+        <v>2.045401173665844</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1.894845576119547</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>3.456914457837022</v>
+        <v>9.437130871507575</v>
       </c>
       <c r="C40">
-        <v>1.094172479900535</v>
+        <v>4.252013933768068</v>
       </c>
       <c r="D40">
-        <v>2.174783830144457</v>
+        <v>1.526684774989174</v>
       </c>
       <c r="E40">
-        <v>1.664993931170645</v>
+        <v>2.066149540909264</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1.915013206503041</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3.504182695243326</v>
+        <v>9.639144273367791</v>
       </c>
       <c r="C41">
-        <v>1.095650914296605</v>
+        <v>4.330968497155694</v>
       </c>
       <c r="D41">
-        <v>2.200105317379435</v>
+        <v>1.533598619183268</v>
       </c>
       <c r="E41">
-        <v>1.679013733067187</v>
+        <v>2.086650711780163</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1.935009253510155</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3.550514023333954</v>
+        <v>9.840187679400058</v>
       </c>
       <c r="C42">
-        <v>1.097075454800841</v>
+        <v>4.409671317655908</v>
       </c>
       <c r="D42">
-        <v>2.225250520555782</v>
+        <v>1.539926245718511</v>
       </c>
       <c r="E42">
-        <v>1.692904380255327</v>
+        <v>2.106908618329144</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1.954828538796415</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3.595888364053505</v>
+        <v>10.04015972492437</v>
       </c>
       <c r="C43">
-        <v>1.098444030921228</v>
+        <v>4.488109852959082</v>
       </c>
       <c r="D43">
-        <v>2.250218884674114</v>
+        <v>1.545632764122848</v>
       </c>
       <c r="E43">
-        <v>1.706666354372637</v>
+        <v>2.126926726889487</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1.974464811226652</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>3.640284562732042</v>
+        <v>10.2389432197172</v>
       </c>
       <c r="C44">
-        <v>1.099754274885253</v>
+        <v>4.566269193028604</v>
       </c>
       <c r="D44">
-        <v>2.275008943506212</v>
+        <v>1.550681610208533</v>
       </c>
       <c r="E44">
-        <v>1.720299918875543</v>
+        <v>2.14670794079107</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1.993910582995901</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>3.683680356165559</v>
+        <v>10.43640320224916</v>
       </c>
       <c r="C45">
-        <v>1.101003483791761</v>
+        <v>4.644131682290819</v>
       </c>
       <c r="D45">
-        <v>2.299618147354842</v>
+        <v>1.555034562163926</v>
       </c>
       <c r="E45">
-        <v>1.733805082648035</v>
+        <v>2.166254452473164</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>2.013156931484534</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>3.72605234172395</v>
+        <v>10.63238482630387</v>
       </c>
       <c r="C46">
-        <v>1.102188575598574</v>
+        <v>4.721676489953946</v>
       </c>
       <c r="D46">
-        <v>2.324042646701906</v>
+        <v>1.558651858849672</v>
       </c>
       <c r="E46">
-        <v>1.747181554971959</v>
+        <v>2.185567545870977</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>2.032193267421673</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>3.767375948294246</v>
+        <v>10.82671107300811</v>
       </c>
       <c r="C47">
-        <v>1.103306037760442</v>
+        <v>4.798879083320238</v>
       </c>
       <c r="D47">
-        <v>2.348277020716769</v>
+        <v>1.561492349118887</v>
       </c>
       <c r="E47">
-        <v>1.760428689643658</v>
+        <v>2.204647318261393</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>2.051007078257869</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>3.80762541006293</v>
+        <v>11.01918031425727</v>
       </c>
       <c r="C48">
-        <v>1.104351867072562</v>
+        <v>4.875710592129638</v>
       </c>
       <c r="D48">
-        <v>2.372313936906759</v>
+        <v>1.563513562344687</v>
       </c>
       <c r="E48">
-        <v>1.773545415369494</v>
+        <v>2.223492288481888</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>2.069583606713201</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>3.846773744376973</v>
+        <v>11.20956380105423</v>
       </c>
       <c r="C49">
-        <v>1.105321498952945</v>
+        <v>4.952137082337827</v>
       </c>
       <c r="D49">
-        <v>2.396143724802894</v>
+        <v>1.564671981592565</v>
       </c>
       <c r="E49">
-        <v>1.786530148845543</v>
+        <v>2.242098871946985</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>2.087905483456229</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3.884792735208046</v>
+        <v>11.39760312353254</v>
       </c>
       <c r="C50">
-        <v>1.106209723984013</v>
+        <v>5.028118737095421</v>
       </c>
       <c r="D50">
-        <v>2.419753842641536</v>
+        <v>1.564923223097128</v>
       </c>
       <c r="E50">
-        <v>1.799380685859479</v>
+        <v>2.260460678415586</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>2.105952293160237</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>3.9216529240827</v>
+        <v>11.5830077492656</v>
       </c>
       <c r="C51">
-        <v>1.107010589014966</v>
+        <v>5.103608838574211</v>
       </c>
       <c r="D51">
-        <v>2.44312821130204</v>
+        <v>1.564222210036521</v>
       </c>
       <c r="E51">
-        <v>1.81209406442427</v>
+        <v>2.278567603988033</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>2.123700068333172</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>3.957323610745689</v>
+        <v>11.76545277380299</v>
       </c>
       <c r="C52">
-        <v>1.107717279584355</v>
+        <v>5.178555218682461</v>
       </c>
       <c r="D52">
-        <v>2.466246384294371</v>
+        <v>1.562524174091806</v>
       </c>
       <c r="E52">
-        <v>1.824666392338881</v>
+        <v>2.296404681618012</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>2.141120887604978</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>4.500131136047242</v>
+        <v>14.17874256331249</v>
       </c>
       <c r="C53">
-        <v>1.410469825317905</v>
+        <v>6.053297190238148</v>
       </c>
       <c r="D53">
-        <v>3.248403792490156</v>
+        <v>2.001841105090714</v>
       </c>
       <c r="E53">
-        <v>2.142306964916393</v>
+        <v>2.904501782856908</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>2.542763621859627</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5.029902437802097</v>
+        <v>16.55462679905379</v>
       </c>
       <c r="C54">
-        <v>1.70827570128536</v>
+        <v>6.921060705611939</v>
       </c>
       <c r="D54">
-        <v>4.025685783201198</v>
+        <v>2.42804148670782</v>
       </c>
       <c r="E54">
-        <v>2.457069231695911</v>
+        <v>3.506120972495517</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>2.939589903767712</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5.546405636481236</v>
+        <v>18.88897705058858</v>
       </c>
       <c r="C55">
-        <v>2.001762973648365</v>
+        <v>7.781062728090832</v>
       </c>
       <c r="D55">
-        <v>4.798340559192159</v>
+        <v>2.841205139183604</v>
       </c>
       <c r="E55">
-        <v>2.769078258756494</v>
+        <v>4.101815625126801</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>3.331408932828334</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6.049370565945434</v>
+        <v>21.17718689955724</v>
       </c>
       <c r="C56">
-        <v>2.29132913226079</v>
+        <v>8.632344803490099</v>
       </c>
       <c r="D56">
-        <v>5.566229510805064</v>
+        <v>3.24117888135362</v>
       </c>
       <c r="E56">
-        <v>3.078401913800553</v>
+        <v>4.691728543324086</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>3.717882892710235</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6.538496353565886</v>
+        <v>23.41422821987723</v>
       </c>
       <c r="C57">
-        <v>2.577212242695825</v>
+        <v>9.473754875648225</v>
       </c>
       <c r="D57">
-        <v>6.32894241113019</v>
+        <v>3.627692070735545</v>
       </c>
       <c r="E57">
-        <v>3.38505208921764</v>
+        <v>5.275664761204728</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>4.098538997925568</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7.013457484834909</v>
+        <v>25.59470981152635</v>
       </c>
       <c r="C58">
-        <v>2.859531064582139</v>
+        <v>10.30392220768559</v>
       </c>
       <c r="D58">
-        <v>7.085832388115953</v>
+        <v>4.00041150168927</v>
       </c>
       <c r="E58">
-        <v>3.688982723049607</v>
+        <v>5.853119597204355</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>4.472772567023492</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7.473909036497004</v>
+        <v>27.7129453533692</v>
       </c>
       <c r="C59">
-        <v>3.138307685193504</v>
+        <v>11.12122923164199</v>
       </c>
       <c r="D59">
-        <v>7.8360150855726</v>
+        <v>4.358973098072561</v>
       </c>
       <c r="E59">
-        <v>3.990084750142674</v>
+        <v>6.423283748332436</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>4.839846304747906</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7.919491552294646</v>
+        <v>29.76304258033872</v>
       </c>
       <c r="C60">
-        <v>3.413479389704834</v>
+        <v>11.92378175091556</v>
       </c>
       <c r="D60">
-        <v>8.578348746954964</v>
+        <v>4.703001019089805</v>
       </c>
       <c r="E60">
-        <v>4.288177938850652</v>
+        <v>6.985034623499664</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>5.198888560410875</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>8.349835910088112</v>
+        <v>31.73901486186549</v>
       </c>
       <c r="C61">
-        <v>3.684903243765282</v>
+        <v>12.70937939753335</v>
       </c>
       <c r="D61">
-        <v>9.311403063107845</v>
+        <v>5.032121373975382</v>
       </c>
       <c r="E61">
-        <v>4.58299948131203</v>
+        <v>7.536924229199021</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>5.548893143350544</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>8.76456845126787</v>
+        <v>33.63492456303702</v>
       </c>
       <c r="C62">
-        <v>3.952355192980144</v>
+        <v>13.47549042868353</v>
       </c>
       <c r="D62">
-        <v>10.03342193442487</v>
+        <v>5.345973129416191</v>
       </c>
       <c r="E62">
-        <v>4.874189223835652</v>
+        <v>8.077169601160806</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>5.888723657008049</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>9.163316591004198</v>
+        <v>35.44504617405343</v>
       </c>
       <c r="C63">
-        <v>4.215524565180082</v>
+        <v>14.2192364205126</v>
       </c>
       <c r="D63">
-        <v>10.74228520315781</v>
+        <v>5.644215643366763</v>
       </c>
       <c r="E63">
-        <v>5.161271589348223</v>
+        <v>8.603653425948181</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>6.217125489629741</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>9.545715087286464</v>
+        <v>37.16405024889995</v>
       </c>
       <c r="C64">
-        <v>4.474004338229938</v>
+        <v>14.93739472254216</v>
       </c>
       <c r="D64">
-        <v>11.43547569775569</v>
+        <v>5.92653707788339</v>
       </c>
       <c r="E64">
-        <v>5.443634620829474</v>
+        <v>9.113944080744247</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>6.532748120649124</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>9.911413107878063</v>
+        <v>38.78720090130149</v>
       </c>
       <c r="C65">
-        <v>4.727277262096546</v>
+        <v>15.62642887780167</v>
       </c>
       <c r="D65">
-        <v>12.11006002016225</v>
+        <v>6.192661754817752</v>
       </c>
       <c r="E65">
-        <v>5.720507244929422</v>
+        <v>9.605341738188732</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>6.834180129478055</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>10.26008218922597</v>
+        <v>40.31055121287575</v>
       </c>
       <c r="C66">
-        <v>4.974697867033059</v>
+        <v>16.28255777108642</v>
       </c>
       <c r="D66">
-        <v>12.76269384490615</v>
+        <v>6.442356928371804</v>
       </c>
       <c r="E66">
-        <v>5.990936897540326</v>
+        <v>10.0749588983845</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>7.119998785019648</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>10.59142512326592</v>
+        <v>41.73112386349622</v>
       </c>
       <c r="C67">
-        <v>5.215470604231752</v>
+        <v>16.90187863586728</v>
       </c>
       <c r="D67">
-        <v>13.38966425988188</v>
+        <v>6.675439774205298</v>
       </c>
       <c r="E67">
-        <v>6.253771099908991</v>
+        <v>10.51983464141436</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>7.388832682641524</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>10.90518573126357</v>
+        <v>43.04706082137049</v>
       </c>
       <c r="C68">
-        <v>5.448624992003513</v>
+        <v>17.48054511751292</v>
       </c>
       <c r="D68">
-        <v>13.98698164544821</v>
+        <v>6.891784311893193</v>
       </c>
       <c r="E68">
-        <v>6.507648331230862</v>
+        <v>10.93708436406207</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>7.63943503060363</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>11.20115938448192</v>
+        <v>44.25772724891871</v>
       </c>
       <c r="C69">
-        <v>5.67298991365072</v>
+        <v>18.01500341841589</v>
       </c>
       <c r="D69">
-        <v>14.55053027719498</v>
+        <v>7.091328319880277</v>
       </c>
       <c r="E69">
-        <v>6.75100527698225</v>
+        <v>11.32407167929579</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>7.870760474161681</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>11.47920400892329</v>
+        <v>45.36375857038513</v>
       </c>
       <c r="C70">
-        <v>5.887171438317068</v>
+        <v>18.50226982806531</v>
       </c>
       <c r="D70">
-        <v>15.07627899910906</v>
+        <v>7.274080135472431</v>
       </c>
       <c r="E70">
-        <v>6.982108560433832</v>
+        <v>11.67858601506538</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>8.082037441591943</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>11.73925117001232</v>
+        <v>46.36704485382723</v>
       </c>
       <c r="C71">
-        <v>6.089541970036509</v>
+        <v>18.94021664886678</v>
       </c>
       <c r="D71">
-        <v>15.56054083091404</v>
+        <v>7.440125176860417</v>
       </c>
       <c r="E71">
-        <v>7.199118344894697</v>
+        <v>11.99900264606063</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>8.27282591791146</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>11.98131668446117</v>
+        <v>47.27065278854668</v>
       </c>
       <c r="C72">
-        <v>6.278253045081347</v>
+        <v>19.32782149966254</v>
       </c>
       <c r="D72">
-        <v>16.00025525288781</v>
+        <v>7.589632000348776</v>
       </c>
       <c r="E72">
-        <v>7.400187568772918</v>
+        <v>12.28440164378167</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>8.443052888576187</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>12.20551007039211</v>
+        <v>48.0786928297178</v>
       </c>
       <c r="C73">
-        <v>6.451288519208809</v>
+        <v>19.66532479079375</v>
       </c>
       <c r="D73">
-        <v>16.3932536269782</v>
+        <v>7.722857683828452</v>
       </c>
       <c r="E73">
-        <v>7.583593416176453</v>
+        <v>12.53462750674276</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>8.593018107911945</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>12.41204205103504</v>
+        <v>48.79614391962166</v>
       </c>
       <c r="C74">
-        <v>6.606576139112749</v>
+        <v>19.95426001843698</v>
       </c>
       <c r="D74">
-        <v>16.73846257588343</v>
+        <v>7.840151834015369</v>
       </c>
       <c r="E74">
-        <v>7.747887742389662</v>
+        <v>12.75028125053492</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>8.723372169670061</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>12.60122930429645</v>
+        <v>49.42865167886933</v>
       </c>
       <c r="C75">
-        <v>6.742168416383541</v>
+        <v>20.1973414903419</v>
       </c>
       <c r="D75">
-        <v>17.03600657755459</v>
+        <v>7.941958909190844</v>
       </c>
       <c r="E75">
-        <v>7.892043452575531</v>
+        <v>12.93264896761285</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>8.835069435468219</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>12.77349572989643</v>
+        <v>49.98231693013702</v>
       </c>
       <c r="C76">
-        <v>6.856483406143939</v>
+        <v>20.39822926038891</v>
       </c>
       <c r="D76">
-        <v>17.28718957576118</v>
+        <v>8.028818591050724</v>
       </c>
       <c r="E76">
-        <v>8.01556869103729</v>
+        <v>13.08358140113189</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>8.929302494102574</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>12.92936970453978</v>
+        <v>50.46349003049244</v>
       </c>
       <c r="C77">
-        <v>6.948563915140068</v>
+        <v>20.56121770543524</v>
       </c>
       <c r="D77">
-        <v>17.4943606349137</v>
+        <v>8.101362898328395</v>
       </c>
       <c r="E77">
-        <v>8.118563950047136</v>
+        <v>13.20534525265175</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>9.007428925407394</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>13.06947710774328</v>
+        <v>50.87858357012838</v>
       </c>
       <c r="C78">
-        <v>7.01828413807735</v>
+        <v>20.690905505673</v>
       </c>
       <c r="D78">
-        <v>17.66069190217255</v>
+        <v>8.160309748278104</v>
       </c>
       <c r="E78">
-        <v>8.201709311403382</v>
+        <v>13.30046772357513</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>9.070898106109658</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>13.19453029168369</v>
+        <v>51.23391198734421</v>
       </c>
       <c r="C79">
-        <v>7.066429474299788</v>
+        <v>20.79189677786828</v>
       </c>
       <c r="D79">
-        <v>17.78991079669605</v>
+        <v>8.206453033849391</v>
       </c>
       <c r="E79">
-        <v>8.266185932469625</v>
+        <v>13.37159213250904</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>9.12118552220284</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>13.30531357702787</v>
+        <v>51.53556260654959</v>
       </c>
       <c r="C80">
-        <v>7.094612192839034</v>
+        <v>20.86856775089624</v>
       </c>
       <c r="D80">
-        <v>17.88602949238736</v>
+        <v>8.240648705081856</v>
       </c>
       <c r="E80">
-        <v>8.313550884740554</v>
+        <v>13.42135647619362</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>9.159738702962548</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>13.40266620963374</v>
+        <v>51.78929910202397</v>
       </c>
       <c r="C81">
-        <v>7.105047267087519</v>
+        <v>20.92491266490692</v>
       </c>
       <c r="D81">
-        <v>17.95310568262772</v>
+        <v>8.263797555179893</v>
       </c>
       <c r="E81">
-        <v>8.345592048733577</v>
+        <v>13.45230040707377</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>9.187936592705338</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>13.48746394386356</v>
+        <v>52.00049562064245</v>
       </c>
       <c r="C82">
-        <v>7.100261537718795</v>
+        <v>20.96446023421943</v>
       </c>
       <c r="D82">
-        <v>17.99505458234611</v>
+        <v>8.276825851986549</v>
       </c>
       <c r="E82">
-        <v>8.364188524865748</v>
+        <v>13.46680092713558</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>9.207062076681993</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>13.56060048736853</v>
+        <v>52.1740978935544</v>
       </c>
       <c r="C83">
-        <v>7.082818074409774</v>
+        <v>20.99024857481567</v>
       </c>
       <c r="D83">
-        <v>18.0155183729567</v>
+        <v>8.280664831016756</v>
       </c>
       <c r="E83">
-        <v>8.371194495126804</v>
+        <v>13.46703366627007</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>9.218286048085666</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>13.62296994727837</v>
+        <v>52.31460695288348</v>
       </c>
       <c r="C84">
-        <v>7.05511042212256</v>
+        <v>21.00484161880162</v>
       </c>
       <c r="D84">
-        <v>18.01778909057055</v>
+        <v>8.276230922516183</v>
       </c>
       <c r="E84">
-        <v>8.368354906446484</v>
+        <v>13.45495488549258</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>9.22266078214267</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>13.67545119203969</v>
+        <v>52.42608036888132</v>
       </c>
       <c r="C85">
-        <v>7.019243121295205</v>
+        <v>21.01036908511192</v>
       </c>
       <c r="D85">
-        <v>18.00477524681661</v>
+        <v>8.264406942772741</v>
       </c>
       <c r="E85">
-        <v>8.357253222658141</v>
+        <v>13.43229889901501</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>9.221119802720676</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>13.64279387988983</v>
+        <v>52.35453792378426</v>
       </c>
       <c r="C86">
-        <v>6.956776481789587</v>
+        <v>20.98022578020506</v>
       </c>
       <c r="D86">
-        <v>17.92318422152976</v>
+        <v>8.205994951666131</v>
       </c>
       <c r="E86">
-        <v>8.310734476880379</v>
+        <v>13.35070308845396</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>9.185028789967276</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>13.60936663268363</v>
+        <v>52.28080737614648</v>
       </c>
       <c r="C87">
-        <v>6.893946182440303</v>
+        <v>20.94951793541863</v>
       </c>
       <c r="D87">
-        <v>17.84062080488042</v>
+        <v>8.147031299452559</v>
       </c>
       <c r="E87">
-        <v>8.2637627635103</v>
+        <v>13.26844635218911</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>9.14853004421475</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>13.57524601170275</v>
+        <v>52.20517274278635</v>
       </c>
       <c r="C88">
-        <v>6.830867974215113</v>
+        <v>20.91836285578789</v>
       </c>
       <c r="D88">
-        <v>17.75726764718704</v>
+        <v>8.087587850927795</v>
       </c>
       <c r="E88">
-        <v>8.21644068422982</v>
+        <v>13.18564409282202</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>9.111685729459417</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>13.54050349986822</v>
+        <v>52.12788446535106</v>
       </c>
       <c r="C89">
-        <v>6.767632803703083</v>
+        <v>20.88685313699298</v>
       </c>
       <c r="D89">
-        <v>17.67327795855473</v>
+        <v>8.027729451516135</v>
       </c>
       <c r="E89">
-        <v>8.168854249757645</v>
+        <v>13.10239481389378</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>9.074549419004674</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>13.50520525273892</v>
+        <v>52.04916167764932</v>
       </c>
       <c r="C90">
-        <v>6.704311436572961</v>
+        <v>20.85506313497472</v>
       </c>
       <c r="D90">
-        <v>17.58877941611333</v>
+        <v>7.967514179147885</v>
       </c>
       <c r="E90">
-        <v>8.121074871756575</v>
+        <v>13.01878289260156</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>9.037167202654205</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>13.46941204005347</v>
+        <v>51.96919557745847</v>
       </c>
       <c r="C91">
-        <v>6.640958633432053</v>
+        <v>20.82305245596775</v>
       </c>
       <c r="D91">
-        <v>17.50387790053086</v>
+        <v>7.906993545677433</v>
       </c>
       <c r="E91">
-        <v>8.073161422931385</v>
+        <v>12.93488044818847</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>8.999578623865636</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>13.43317933595494</v>
+        <v>51.88815287460226</v>
       </c>
       <c r="C92">
-        <v>6.577616676343333</v>
+        <v>20.79086883684876</v>
       </c>
       <c r="D92">
-        <v>17.41866090635436</v>
+        <v>7.846212892751473</v>
       </c>
       <c r="E92">
-        <v>8.025162195611697</v>
+        <v>12.85074898944268</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>8.961817438215109</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>13.39655751854634</v>
+        <v>51.80617848256369</v>
       </c>
       <c r="C93">
-        <v>6.514318226379857</v>
+        <v>20.75855060208013</v>
       </c>
       <c r="D93">
-        <v>17.33320055730065</v>
+        <v>7.785211886621608</v>
       </c>
       <c r="E93">
-        <v>7.977116669989313</v>
+        <v>12.76644080527631</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>8.923912574914276</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>13.35959214433317</v>
+        <v>51.72339773658344</v>
       </c>
       <c r="C94">
-        <v>6.451088578699649</v>
+        <v>20.72612848560645</v>
       </c>
       <c r="D94">
-        <v>17.24755621282839</v>
+        <v>7.724025035717532</v>
       </c>
       <c r="E94">
-        <v>7.929057056599327</v>
+        <v>12.68200058622495</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>8.885888796386295</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>13.32232426901994</v>
+        <v>51.63991969057282</v>
       </c>
       <c r="C95">
-        <v>6.387947412011668</v>
+        <v>20.69362712652825</v>
       </c>
       <c r="D95">
-        <v>17.16177668478319</v>
+        <v>7.662682273760533</v>
       </c>
       <c r="E95">
-        <v>7.88100961017155</v>
+        <v>12.59746642326408</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>8.847767222507278</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>13.28479079210284</v>
+        <v>51.55583893215236</v>
       </c>
       <c r="C96">
-        <v>6.324910131092763</v>
+        <v>20.66106630242521</v>
       </c>
       <c r="D96">
-        <v>17.07590209985749</v>
+        <v>7.601209525217384</v>
       </c>
       <c r="E96">
-        <v>7.83299572993961</v>
+        <v>12.51287074951308</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>8.809565876920258</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>13.2470248082413</v>
+        <v>51.47123713814485</v>
       </c>
       <c r="C97">
-        <v>6.261988890197292</v>
+        <v>20.62846204435939</v>
       </c>
       <c r="D97">
-        <v>16.98996545058169</v>
+        <v>7.539629186087589</v>
       </c>
       <c r="E97">
-        <v>7.785032869964984</v>
+        <v>12.42824130312943</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>8.771300310091826</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>13.20905595305458</v>
+        <v>51.38618509675031</v>
       </c>
       <c r="C98">
-        <v>6.19919337035924</v>
+        <v>20.59582732937132</v>
       </c>
       <c r="D98">
-        <v>16.90399387848726</v>
+        <v>7.477960569410363</v>
       </c>
       <c r="E98">
-        <v>7.737135285715149</v>
+        <v>12.34360181287711</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>8.732983813139633</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>13.1709107349438</v>
+        <v>51.30074416605567</v>
       </c>
       <c r="C99">
-        <v>6.136531368868301</v>
+        <v>20.56317265824935</v>
       </c>
       <c r="D99">
-        <v>16.81800973063593</v>
+        <v>7.41622032673607</v>
       </c>
       <c r="E99">
-        <v>7.689314642542249</v>
+        <v>12.25897260399048</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>8.69462776479727</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>13.13261284755383</v>
+        <v>51.21496745527738</v>
       </c>
       <c r="C100">
-        <v>6.074009246308294</v>
+        <v>20.53050657796445</v>
       </c>
       <c r="D100">
-        <v>16.73203142659108</v>
+        <v>7.354422832140853</v>
       </c>
       <c r="E100">
-        <v>7.641580509454565</v>
+        <v>12.17437110163433</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>8.656241973603338</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>13.09418345981629</v>
+        <v>51.12890095197567</v>
       </c>
       <c r="C101">
-        <v>6.011632265956703</v>
+        <v>20.49783604555302</v>
       </c>
       <c r="D101">
-        <v>16.6460741681924</v>
+        <v>7.292580535626455</v>
       </c>
       <c r="E101">
-        <v>7.593940758638273</v>
+        <v>12.08981245316076</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>8.617834887998251</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>13.05564148221712</v>
+        <v>51.04258442595965</v>
       </c>
       <c r="C102">
-        <v>5.949404851978467</v>
+        <v>20.46516675715305</v>
       </c>
       <c r="D102">
-        <v>16.56015051977689</v>
+        <v>7.23070420415613</v>
       </c>
       <c r="E102">
-        <v>7.546401888132927</v>
+        <v>12.00530968954405</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>8.579413791929538</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>13.01700380913521</v>
+        <v>50.95605284163758</v>
       </c>
       <c r="C103">
-        <v>5.887330786328053</v>
+        <v>20.432503382436</v>
       </c>
       <c r="D103">
-        <v>16.47427088211224</v>
+        <v>7.168803133605165</v>
       </c>
       <c r="E103">
-        <v>7.498969282196657</v>
+        <v>11.92087406270243</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>8.540984971932405</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>12.97828553791309</v>
+        <v>50.86933637099331</v>
       </c>
       <c r="C104">
-        <v>5.825413359386803</v>
+        <v>20.3998497588966</v>
       </c>
       <c r="D104">
-        <v>16.38844387940345</v>
+        <v>7.106885389878602</v>
       </c>
       <c r="E104">
-        <v>7.451647421328292</v>
+        <v>11.83651534969181</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>8.502553896725127</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>12.93950016584404</v>
+        <v>50.78246120901476</v>
       </c>
       <c r="C105">
-        <v>5.763655485591435</v>
+        <v>20.36720906203686</v>
       </c>
       <c r="D105">
-        <v>16.3026766753697</v>
+        <v>7.044958008684176</v>
       </c>
       <c r="E105">
-        <v>7.404440051713566</v>
+        <v>11.75224211051086</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>8.464125341887351</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>12.90065976656662</v>
+        <v>50.69545006996204</v>
       </c>
       <c r="C106">
-        <v>5.702059792521392</v>
+        <v>20.33458391077436</v>
       </c>
       <c r="D106">
-        <v>16.21697523152158</v>
+        <v>6.983027138337301</v>
       </c>
       <c r="E106">
-        <v>7.357350322032317</v>
+        <v>11.66806186104563</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>8.425703460043934</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>12.86177514751143</v>
+        <v>50.60832274684483</v>
       </c>
       <c r="C107">
-        <v>5.640628689811256</v>
+        <v>20.30197646490543</v>
       </c>
       <c r="D107">
-        <v>16.13134451834686</v>
+        <v>6.921098157337939</v>
       </c>
       <c r="E107">
-        <v>7.310380894011749</v>
+        <v>11.58398120865972</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>8.387291853208684</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>12.82285599008656</v>
+        <v>50.52109660306144</v>
       </c>
       <c r="C108">
-        <v>5.579364422683291</v>
+        <v>20.26938852715131</v>
       </c>
       <c r="D108">
-        <v>16.0457886881928</v>
+        <v>6.859175786546774</v>
       </c>
       <c r="E108">
-        <v>7.263534031873066</v>
+        <v>11.50000598474437</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>8.348893675943053</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>12.78391097426241</v>
+        <v>50.43378683075994</v>
       </c>
       <c r="C109">
-        <v>5.518269113720014</v>
+        <v>20.23682161176809</v>
       </c>
       <c r="D109">
-        <v>15.96031121693752</v>
+        <v>6.797264184527465</v>
       </c>
       <c r="E109">
-        <v>7.216811674801671</v>
+        <v>11.41614136095649</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>8.310511706403412</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>12.74494788914035</v>
+        <v>50.34640669825863</v>
       </c>
       <c r="C110">
-        <v>5.457344795615147</v>
+        <v>20.20427698745014</v>
       </c>
       <c r="D110">
-        <v>15.87491502024242</v>
+        <v>6.73536704362574</v>
       </c>
       <c r="E110">
-        <v>7.170215495754485</v>
+        <v>11.33239196789314</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>8.272148398284008</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>12.7059737309907</v>
+        <v>50.2589678073825</v>
       </c>
       <c r="C111">
-        <v>5.396593436988294</v>
+        <v>20.17175571392656</v>
       </c>
       <c r="D111">
-        <v>15.78960254907938</v>
+        <v>6.673487625612008</v>
       </c>
       <c r="E111">
-        <v>7.123746949259171</v>
+        <v>11.24876192612432</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>8.233805921766395</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>12.66699479012678</v>
+        <v>50.17148032394061</v>
       </c>
       <c r="C112">
-        <v>5.336016962837207</v>
+        <v>20.13925867861499</v>
       </c>
       <c r="D112">
-        <v>15.70437586834709</v>
+        <v>6.61162891270506</v>
       </c>
       <c r="E112">
-        <v>7.077407310333608</v>
+        <v>11.16525504291647</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>8.195486198293118</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>12.62801672786219</v>
+        <v>50.08395313655556</v>
       </c>
       <c r="C113">
-        <v>5.275617270840547</v>
+        <v>20.10678662719165</v>
       </c>
       <c r="D113">
-        <v>15.6192367216721</v>
+        <v>6.549793544119892</v>
       </c>
       <c r="E113">
-        <v>7.031197706232921</v>
+        <v>11.08187471994079</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>8.157190933715938</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>12.58904464467699</v>
+        <v>49.99639416303845</v>
       </c>
       <c r="C114">
-        <v>5.215396244442453</v>
+        <v>20.07434018731401</v>
       </c>
       <c r="D114">
-        <v>15.53418658490916</v>
+        <v>6.487983900336394</v>
       </c>
       <c r="E114">
-        <v>6.985119142391817</v>
+        <v>10.99862405647441</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>8.118921646510284</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>12.55008314060484</v>
+        <v>49.90881031044643</v>
       </c>
       <c r="C115">
-        <v>5.15535576342508</v>
+        <v>20.04191989745138</v>
       </c>
       <c r="D115">
-        <v>15.44922671038566</v>
+        <v>6.426202150977982</v>
       </c>
       <c r="E115">
-        <v>6.93917252367272</v>
+        <v>10.91550588229139</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>8.08067969976446</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>12.51113636874318</v>
+        <v>49.82120775719881</v>
       </c>
       <c r="C116">
-        <v>5.095497712520111</v>
+        <v>20.00952620253172</v>
       </c>
       <c r="D116">
-        <v>15.36435816355424</v>
+        <v>6.364450259440597</v>
       </c>
       <c r="E116">
-        <v>6.893358671784546</v>
+        <v>10.83252281856556</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>8.042466317240482</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>12.47220808268951</v>
+        <v>49.73359187313688</v>
       </c>
       <c r="C117">
-        <v>5.035823988484826</v>
+        <v>19.97715951212711</v>
       </c>
       <c r="D117">
-        <v>15.27958185340546</v>
+        <v>6.302730056888851</v>
       </c>
       <c r="E117">
-        <v>6.847678339605996</v>
+        <v>10.74967731018442</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>8.004282601191608</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>12.43330167861476</v>
+        <v>49.64596742348122</v>
       </c>
       <c r="C118">
-        <v>4.97633650597247</v>
+        <v>19.94482014003809</v>
       </c>
       <c r="D118">
-        <v>15.1948985577649</v>
+        <v>6.24104322357673</v>
       </c>
       <c r="E118">
-        <v>6.802132222977845</v>
+        <v>10.66697164376699</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>7.966129585883968</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>12.39442023260406</v>
+        <v>49.55833861422226</v>
       </c>
       <c r="C119">
-        <v>4.917037202453798</v>
+        <v>19.91250839766927</v>
       </c>
       <c r="D119">
-        <v>15.11030894433498</v>
+        <v>6.179391339708331</v>
       </c>
       <c r="E119">
-        <v>6.756720970431715</v>
+        <v>10.58440796976674</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>7.928008175908429</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>12.35556653381987</v>
+        <v>49.47070918879112</v>
       </c>
       <c r="C120">
-        <v>4.857928042390975</v>
+        <v>19.88022450867868</v>
       </c>
       <c r="D120">
-        <v>15.02581358826868</v>
+        <v>6.117775890433142</v>
       </c>
       <c r="E120">
-        <v>6.711445191230439</v>
+        <v>10.50198833876818</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>7.889919205288299</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>12.31674311397748</v>
+        <v>49.38308246786053</v>
       </c>
       <c r="C121">
-        <v>4.799011020820292</v>
+        <v>19.84796869561538</v>
       </c>
       <c r="D121">
-        <v>14.94141298684892</v>
+        <v>6.056198276484532</v>
       </c>
       <c r="E121">
-        <v>6.666305462025722</v>
+        <v>10.41971467593421</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>7.851863426362762</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>12.27795227356405</v>
+        <v>49.29546142596406</v>
       </c>
       <c r="C122">
-        <v>4.740288166472913</v>
+        <v>19.81574112417097</v>
       </c>
       <c r="D122">
-        <v>14.85710757178113</v>
+        <v>5.994659834516948</v>
       </c>
       <c r="E122">
-        <v>6.621302332380507</v>
+        <v>10.33758884650433</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>7.813841538309803</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>12.23919610518131</v>
+        <v>49.20784870010817</v>
       </c>
       <c r="C123">
-        <v>4.681761544520911</v>
+        <v>19.78354194774682</v>
       </c>
       <c r="D123">
-        <v>14.77289771950258</v>
+        <v>5.93316184085703</v>
       </c>
       <c r="E123">
-        <v>6.576436329357558</v>
+        <v>10.25561262057148</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>7.775854187568591</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>12.20047651434552</v>
+        <v>49.12024663954229</v>
       </c>
       <c r="C124">
-        <v>4.623433259033979</v>
+        <v>19.75137129301401</v>
       </c>
       <c r="D124">
-        <v>14.68878375984564</v>
+        <v>5.871705522457737</v>
       </c>
       <c r="E124">
-        <v>6.531707961338555</v>
+        <v>10.1737877167976</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>7.737901975761367</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>12.16179523803761</v>
+        <v>49.03265734449072</v>
       </c>
       <c r="C125">
-        <v>4.565305455208928</v>
+        <v>19.71922927077023</v>
       </c>
       <c r="D125">
-        <v>14.60476598333045</v>
+        <v>5.810292071515323</v>
       </c>
       <c r="E125">
-        <v>6.487117721207835</v>
+        <v>10.09211580074955</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>7.699985464496404</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>12.12315386126726</v>
+        <v>48.94508268689039</v>
       </c>
       <c r="C126">
-        <v>4.507380321414986</v>
+        <v>19.68711597711652</v>
       </c>
       <c r="D126">
-        <v>14.5208446473152</v>
+        <v>5.74892264607706</v>
       </c>
       <c r="E126">
-        <v>6.442666089010449</v>
+        <v>10.01059849720606</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>7.662105184993923</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>12.08455383187447</v>
+        <v>48.85752434402494</v>
       </c>
       <c r="C127">
-        <v>4.449660091098099</v>
+        <v>19.65503149771715</v>
       </c>
       <c r="D127">
-        <v>14.43701998119271</v>
+        <v>5.687598385499617</v>
       </c>
       <c r="E127">
-        <v>6.398353534174551</v>
+        <v>9.929237400746203</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>7.62426162756975</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>12.04599647375831</v>
+        <v>48.76998382260887</v>
       </c>
       <c r="C128">
-        <v>4.392147044573393</v>
+        <v>19.62297590340926</v>
       </c>
       <c r="D128">
-        <v>14.35329219078941</v>
+        <v>5.626320409312703</v>
       </c>
       <c r="E128">
-        <v>6.354180517371296</v>
+        <v>9.848034076254269</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>7.586455270087152</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>12.00748299873425</v>
+        <v>48.68246247636908</v>
       </c>
       <c r="C129">
-        <v>4.334843510731444</v>
+        <v>19.59094926024341</v>
       </c>
       <c r="D129">
-        <v>14.26966146209607</v>
+        <v>5.565089830335336</v>
       </c>
       <c r="E129">
-        <v>6.310147492075517</v>
+        <v>9.766990068708665</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>7.548686547213595</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>11.96901451715331</v>
+        <v>48.59496152006983</v>
       </c>
       <c r="C130">
-        <v>4.277751868677862</v>
+        <v>19.55895161980066</v>
       </c>
       <c r="D130">
-        <v>14.18612796443821</v>
+        <v>5.503907751497938</v>
       </c>
       <c r="E130">
-        <v>6.266254905874981</v>
+        <v>9.686106905517772</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>7.510955887748525</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>11.93059204742963</v>
+        <v>48.50748204982312</v>
       </c>
       <c r="C131">
-        <v>4.220874549322302</v>
+        <v>19.52698303019621</v>
       </c>
       <c r="D131">
-        <v>14.10269185317552</v>
+        <v>5.442775276969987</v>
       </c>
       <c r="E131">
-        <v>6.222503201565635</v>
+        <v>9.605386099940075</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>7.473263687626667</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>11.89221652459612</v>
+        <v>48.42002505106991</v>
       </c>
       <c r="C132">
-        <v>4.164214036929464</v>
+        <v>19.49504352962586</v>
       </c>
       <c r="D132">
-        <v>14.01935327200503</v>
+        <v>5.38169351075036</v>
       </c>
       <c r="E132">
-        <v>6.178892818077649</v>
+        <v>9.524829157942179</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>7.435610333370617</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>11.8538888079933</v>
+        <v>48.33259141256569</v>
       </c>
       <c r="C133">
-        <v>4.107772870642335</v>
+        <v>19.46313315193497</v>
       </c>
       <c r="D133">
-        <v>13.93611235493033</v>
+        <v>5.320663563453591</v>
       </c>
       <c r="E133">
-        <v>6.135424191250554</v>
+        <v>9.444437579479324</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>7.397996193329042</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>11.81560968818799</v>
+        <v>48.24518193481293</v>
       </c>
       <c r="C134">
-        <v>4.051553645985664</v>
+        <v>19.43125192572868</v>
       </c>
       <c r="D134">
-        <v>13.85296922794898</v>
+        <v>5.259686554896379</v>
       </c>
       <c r="E134">
-        <v>6.092097754485653</v>
+        <v>9.364212863245148</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>7.360421624292802</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>11.77737989320273</v>
+        <v>48.15779734506455</v>
       </c>
       <c r="C135">
-        <v>3.995559016356007</v>
+        <v>19.39939987537895</v>
       </c>
       <c r="D135">
-        <v>13.76992401050174</v>
+        <v>5.198763616788067</v>
       </c>
       <c r="E135">
-        <v>6.048913939294389</v>
+        <v>9.28415650972698</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>7.322886972014203</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>11.73920009413224</v>
+        <v>48.07043830239324</v>
       </c>
       <c r="C136">
-        <v>3.939791694503194</v>
+        <v>19.36757702188389</v>
       </c>
       <c r="D136">
-        <v>13.68697681672024</v>
+        <v>5.137895897395471</v>
       </c>
       <c r="E136">
-        <v>6.005873175758502</v>
+        <v>9.204270022306506</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>7.285392574205654</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>11.70107091020976</v>
+        <v>47.98310539732815</v>
       </c>
       <c r="C137">
-        <v>3.884254454006931</v>
+        <v>19.33578338332848</v>
       </c>
       <c r="D137">
-        <v>13.60412775650389</v>
+        <v>5.077084562407954</v>
       </c>
       <c r="E137">
-        <v>5.962975892916173</v>
+        <v>9.124554911763935</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>7.247938757723436</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>11.66299291338363</v>
+        <v>47.8957991884083</v>
       </c>
       <c r="C138">
-        <v>3.828950130751208</v>
+        <v>19.30401897443179</v>
       </c>
       <c r="D138">
-        <v>13.52137693645189</v>
+        <v>5.01633079973936</v>
       </c>
       <c r="E138">
-        <v>5.920222519085065</v>
+        <v>9.045012695637707</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>7.210525845763796</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>11.62496663245333</v>
+        <v>47.8085201506611</v>
       </c>
       <c r="C139">
-        <v>3.773881624398325</v>
+        <v>19.27228380818812</v>
       </c>
       <c r="D139">
-        <v>13.4387244606722</v>
+        <v>4.955635819996573</v>
       </c>
       <c r="E139">
-        <v>5.87761348213196</v>
+        <v>8.965644902070295</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>7.173154151023733</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>11.58699255681252</v>
+        <v>47.72126875262108</v>
       </c>
       <c r="C140">
-        <v>3.719051899863602</v>
+        <v>19.24057789440407</v>
       </c>
       <c r="D140">
-        <v>13.35617043148581</v>
+        <v>4.895000860794308</v>
       </c>
       <c r="E140">
-        <v>5.83514920969686</v>
+        <v>8.886453070526297</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>7.135823983815945</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>11.54907113983805</v>
+        <v>47.63404539531419</v>
       </c>
       <c r="C141">
-        <v>3.664463988791153</v>
+        <v>19.20890124156525</v>
       </c>
       <c r="D141">
-        <v>13.27371495004204</v>
+        <v>4.834427187705461</v>
       </c>
       <c r="E141">
-        <v>5.792830129378249</v>
+        <v>8.807438753649375</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>7.098535647030412</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>11.51120280196249</v>
+        <v>47.54685045396465</v>
       </c>
       <c r="C142">
-        <v>3.610120991030505</v>
+        <v>19.1772538558466</v>
       </c>
       <c r="D142">
-        <v>13.19135811685786</v>
+        <v>4.7739160976952</v>
       </c>
       <c r="E142">
-        <v>5.750656668885139</v>
+        <v>8.72860351912038</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>7.061289440665579</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>11.47338793346099</v>
+        <v>47.45968427314027</v>
       </c>
       <c r="C143">
-        <v>3.556026076113301</v>
+        <v>19.14563574211532</v>
       </c>
       <c r="D143">
-        <v>13.10910003229264</v>
+        <v>4.713468920965672</v>
       </c>
       <c r="E143">
-        <v>5.708629256160619</v>
+        <v>8.649948950526891</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>7.02408566061573</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>11.43562689698241</v>
+        <v>47.37254715811153</v>
       </c>
       <c r="C144">
-        <v>3.502182484728763</v>
+        <v>19.11404690381772</v>
       </c>
       <c r="D144">
-        <v>13.02694079696762</v>
+        <v>4.653087023653951</v>
       </c>
       <c r="E144">
-        <v>5.666748319480864</v>
+        <v>8.571476649034109</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>6.986924600176112</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>11.39792002984904</v>
+        <v>47.28543939711793</v>
       </c>
       <c r="C145">
-        <v>3.448593530196127</v>
+        <v>19.08248734322399</v>
       </c>
       <c r="D145">
-        <v>12.94488051213834</v>
+        <v>4.592771810194278</v>
       </c>
       <c r="E145">
-        <v>5.625014287533019</v>
+        <v>8.493188234405276</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>6.949806550065777</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>11.36026764614898</v>
+        <v>47.19836124754563</v>
       </c>
       <c r="C146">
-        <v>3.395262599931749</v>
+        <v>19.05095706158768</v>
       </c>
       <c r="D146">
-        <v>12.86291928002686</v>
+        <v>4.532524725788217</v>
       </c>
       <c r="E146">
-        <v>5.583427589474748</v>
+        <v>8.415085345906601</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>6.912731799746404</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>11.32267003864025</v>
+        <v>47.11131295075105</v>
       </c>
       <c r="C147">
-        <v>3.342193156908092</v>
+        <v>19.01945605928697</v>
       </c>
       <c r="D147">
-        <v>12.78105720411963</v>
+        <v>4.47234725903685</v>
       </c>
       <c r="E147">
-        <v>5.541988654977882</v>
+        <v>8.337169643708526</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>6.875700636488361</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>11.28512748048523</v>
+        <v>47.02429472472209</v>
       </c>
       <c r="C148">
-        <v>3.289388741101326</v>
+        <v>18.98798433576273</v>
       </c>
       <c r="D148">
-        <v>12.69929438943604</v>
+        <v>4.412240944063761</v>
       </c>
       <c r="E148">
-        <v>5.500697914258203</v>
+        <v>8.259442809312745</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>6.838713347401603</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>11.24764022683575</v>
+        <v>46.93730677286257</v>
       </c>
       <c r="C149">
-        <v>3.236852970923748</v>
+        <v>18.95654188984475</v>
       </c>
       <c r="D149">
-        <v>12.61763094277207</v>
+        <v>4.352207363586109</v>
       </c>
       <c r="E149">
-        <v>5.459555798093098</v>
+        <v>8.181906547704033</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>6.801770218081866</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>11.21020851627718</v>
+        <v>46.85034928270684</v>
       </c>
       <c r="C150">
-        <v>3.18458954463673</v>
+        <v>18.92512871952103</v>
       </c>
       <c r="D150">
-        <v>12.53606697292284</v>
+        <v>4.292248151945477</v>
       </c>
       <c r="E150">
-        <v>5.418562737828524</v>
+        <v>8.104562586235003</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>6.764871534204436</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>11.1728325721419</v>
+        <v>46.76342242413401</v>
       </c>
       <c r="C151">
-        <v>3.132602241739374</v>
+        <v>18.8937448222478</v>
       </c>
       <c r="D151">
-        <v>12.4546025908863</v>
+        <v>4.232364996009536</v>
       </c>
       <c r="E151">
-        <v>5.377719165376567</v>
+        <v>8.027412678063699</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>6.728017580996281</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>11.13551260371907</v>
+        <v>46.67652635913639</v>
       </c>
       <c r="C152">
-        <v>3.080894924327504</v>
+        <v>18.86239019484782</v>
       </c>
       <c r="D152">
-        <v>12.37323791005232</v>
+        <v>4.172559640862967</v>
       </c>
       <c r="E152">
-        <v>5.337025513204652</v>
+        <v>7.950458601553708</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>6.691208643906484</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>11.09824880735756</v>
+        <v>46.58966123126531</v>
       </c>
       <c r="C153">
-        <v>3.029471538416955</v>
+        <v>18.83106483383979</v>
       </c>
       <c r="D153">
-        <v>12.29197304637844</v>
+        <v>4.112833891489457</v>
       </c>
       <c r="E153">
-        <v>5.296482214317286</v>
+        <v>7.873702159898329</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>6.654445008608298</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>11.06104136747338</v>
+        <v>46.50282717827702</v>
       </c>
       <c r="C154">
-        <v>2.978336115224633</v>
+        <v>18.79976873514225</v>
       </c>
       <c r="D154">
-        <v>12.2108081185546</v>
+        <v>4.0531896133556</v>
       </c>
       <c r="E154">
-        <v>5.25608970223114</v>
+        <v>7.797145185293139</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>6.617726961493149</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>11.02389045747561</v>
+        <v>46.4160243245346</v>
       </c>
       <c r="C155">
-        <v>2.927492772400083</v>
+        <v>18.76850189426287</v>
       </c>
       <c r="D155">
-        <v>12.12974324815875</v>
+        <v>3.99362874254177</v>
       </c>
       <c r="E155">
-        <v>5.215848410944105</v>
+        <v>7.720789535785319</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>6.581054790046296</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>10.98679624061464</v>
+        <v>46.32925278617974</v>
       </c>
       <c r="C156">
-        <v>2.876945715199612</v>
+        <v>18.73726430673158</v>
       </c>
       <c r="D156">
-        <v>12.04877855980468</v>
+        <v>3.934153281856876</v>
       </c>
       <c r="E156">
-        <v>5.175758774898892</v>
+        <v>7.644637098827431</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>6.54442878218585</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>10.94975887075904</v>
+        <v>46.24251267114124</v>
       </c>
       <c r="C157">
-        <v>2.826699237594441</v>
+        <v>18.7060559674501</v>
       </c>
       <c r="D157">
-        <v>11.96791418128356</v>
+        <v>3.874765305930982</v>
       </c>
       <c r="E157">
-        <v>5.135821228941659</v>
+        <v>7.568689791071324</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>6.50784922734118</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>10.9127784931105</v>
+        <v>46.15580407887568</v>
       </c>
       <c r="C158">
-        <v>2.77675772330328</v>
+        <v>18.67487687092434</v>
       </c>
       <c r="D158">
-        <v>11.88715024370028</v>
+        <v>3.815466973886057</v>
       </c>
       <c r="E158">
-        <v>5.096036208276079</v>
+        <v>7.492949558477279</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>6.47131641702254</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>10.87585524486011</v>
+        <v>46.06912710301867</v>
       </c>
       <c r="C159">
-        <v>2.727125646739282</v>
+        <v>18.64372701193126</v>
       </c>
       <c r="D159">
-        <v>11.80648688160566</v>
+        <v>3.756260518209772</v>
       </c>
       <c r="E159">
-        <v>5.05640414841318</v>
+        <v>7.417418378254129</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>6.434830643305451</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>10.8389892557913</v>
+        <v>45.98248182938652</v>
       </c>
       <c r="C160">
-        <v>2.677807573860242</v>
+        <v>18.61260638466322</v>
       </c>
       <c r="D160">
-        <v>11.72592423312534</v>
+        <v>3.697148259104047</v>
       </c>
       <c r="E160">
-        <v>5.016925485117294</v>
+        <v>7.342098258704509</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>6.398392199862154</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>10.8021806488354</v>
+        <v>45.89586833958194</v>
       </c>
       <c r="C161">
-        <v>2.628808162910055</v>
+        <v>18.58151498294668</v>
       </c>
       <c r="D161">
-        <v>11.64546244008626</v>
+        <v>3.638132613161876</v>
       </c>
       <c r="E161">
-        <v>4.977600654348334</v>
+        <v>7.266991240334905</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>6.362001383393592</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>10.76542954058275</v>
+        <v>45.80928670844553</v>
       </c>
       <c r="C162">
-        <v>2.580132165038779</v>
+        <v>18.55045280085053</v>
       </c>
       <c r="D162">
-        <v>11.56510164814139</v>
+        <v>3.579216082627216</v>
       </c>
       <c r="E162">
-        <v>4.938430092200645</v>
+        <v>7.192099396494923</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>6.325658491607324</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>10.72873604175338</v>
+        <v>45.7227370066223</v>
       </c>
       <c r="C163">
-        <v>2.531784424787053</v>
+        <v>18.51941983204101</v>
       </c>
       <c r="D163">
-        <v>11.48484200689324</v>
+        <v>3.520401274750542</v>
       </c>
       <c r="E163">
-        <v>4.899414234838605</v>
+        <v>7.117424833934487</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>6.289363823749335</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>10.69210025763152</v>
+        <v>45.63621930023449</v>
       </c>
       <c r="C164">
-        <v>2.483769880420329</v>
+        <v>18.48841606993626</v>
       </c>
       <c r="D164">
-        <v>11.40468367001687</v>
+        <v>3.461690905675746</v>
       </c>
       <c r="E164">
-        <v>4.860553518429136</v>
+        <v>7.042969693829594</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>6.253117682420492</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>10.65552228846599</v>
+        <v>45.54973365044471</v>
       </c>
       <c r="C165">
-        <v>2.436093564096815</v>
+        <v>18.45744150802244</v>
       </c>
       <c r="D165">
-        <v>11.32462679538285</v>
+        <v>3.403087793109178</v>
       </c>
       <c r="E165">
-        <v>4.821848379071283</v>
+        <v>6.96873615203608</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>6.216920371895068</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>10.6190022298399</v>
+        <v>45.46328011553028</v>
       </c>
       <c r="C166">
-        <v>2.388760601852023</v>
+        <v>18.4264961395755</v>
       </c>
       <c r="D166">
-        <v>11.24467154518046</v>
+        <v>3.344594881739927</v>
       </c>
       <c r="E166">
-        <v>4.783299252722934</v>
+        <v>6.894726420108891</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>6.180772198381322</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>10.5825401730124</v>
+        <v>45.37685874921516</v>
       </c>
       <c r="C167">
-        <v>2.341776213382171</v>
+        <v>18.39557995774033</v>
       </c>
       <c r="D167">
-        <v>11.16481808604188</v>
+        <v>3.286215236741501</v>
       </c>
       <c r="E167">
-        <v>4.744906575124839</v>
+        <v>6.820942745922348</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>6.144673471226548</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>10.54613620523424</v>
+        <v>45.2904696027226</v>
       </c>
       <c r="C168">
-        <v>2.29514571160638</v>
+        <v>18.36469295563424</v>
       </c>
       <c r="D168">
-        <v>11.08506658916735</v>
+        <v>3.227952046111839</v>
       </c>
       <c r="E168">
-        <v>4.706670781721967</v>
+        <v>6.747387414109983</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>6.108624502082654</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>10.50979041003976</v>
+        <v>45.20411272374307</v>
       </c>
       <c r="C169">
-        <v>2.248874501987718</v>
+        <v>18.33383512626179</v>
       </c>
       <c r="D169">
-        <v>11.00541723045206</v>
+        <v>3.169808653388876</v>
       </c>
       <c r="E169">
-        <v>4.668592307582301</v>
+        <v>6.674062747113979</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>6.072625605069611</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>10.47350286751727</v>
+        <v>45.11778815742016</v>
       </c>
       <c r="C170">
-        <v>2.202968081591096</v>
+        <v>18.30300646253809</v>
       </c>
       <c r="D170">
-        <v>10.92587019061466</v>
+        <v>3.111788531281478</v>
       </c>
       <c r="E170">
-        <v>4.630671587313119</v>
+        <v>6.600971105604833</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>6.036677097332105</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>10.43727365455908</v>
+        <v>45.03149594634159</v>
       </c>
       <c r="C171">
-        <v>2.157432037854927</v>
+        <v>18.27220695737861</v>
       </c>
       <c r="D171">
-        <v>10.84642565532812</v>
+        <v>3.053895307550373</v>
       </c>
       <c r="E171">
-        <v>4.592909054974828</v>
+        <v>6.528114889254535</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>6.000779298764432</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>10.40110284509342</v>
+        <v>44.9452361305099</v>
       </c>
       <c r="C172">
-        <v>2.112272047052912</v>
+        <v>18.24143660360492</v>
       </c>
       <c r="D172">
-        <v>10.76708381535292</v>
+        <v>2.99613279103342</v>
       </c>
       <c r="E172">
-        <v>4.55530514399238</v>
+        <v>6.455496537424692</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>5.964932531990092</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>10.36499051029946</v>
+        <v>44.85900874812339</v>
       </c>
       <c r="C173">
-        <v>2.067493872419715</v>
+        <v>18.21069539394505</v>
       </c>
       <c r="D173">
-        <v>10.68784486667292</v>
+        <v>2.938504939829178</v>
       </c>
       <c r="E173">
-        <v>4.517860287064339</v>
+        <v>6.383118529844145</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>5.929137122901502</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>10.32893671880658</v>
+        <v>44.77281383486215</v>
       </c>
       <c r="C174">
-        <v>2.023103361914519</v>
+        <v>18.17998332117761</v>
       </c>
       <c r="D174">
-        <v>10.60870901063433</v>
+        <v>2.881015903347206</v>
       </c>
       <c r="E174">
-        <v>4.480574916069587</v>
+        <v>6.310983387275169</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>5.893393400407889</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>10.29294153687946</v>
+        <v>44.68665142501795</v>
       </c>
       <c r="C175">
-        <v>1.979106445594545</v>
+        <v>18.14930037799446</v>
       </c>
       <c r="D175">
-        <v>10.52967645408774</v>
+        <v>2.823670038083054</v>
       </c>
       <c r="E175">
-        <v>4.443449461971742</v>
+        <v>6.23909367218751</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>5.857701696246593</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>10.25700502859</v>
+        <v>44.60052155078205</v>
       </c>
       <c r="C176">
-        <v>1.935509132569555</v>
+        <v>18.1186465570054</v>
       </c>
       <c r="D176">
-        <v>10.45074740953371</v>
+        <v>2.766471880397042</v>
       </c>
       <c r="E176">
-        <v>4.406484354721297</v>
+        <v>6.167451989453748</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>5.822062345746769</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>10.22112725597696</v>
+        <v>44.51442424289538</v>
       </c>
       <c r="C177">
-        <v>1.892317507508087</v>
+        <v>18.08802185086942</v>
       </c>
       <c r="D177">
-        <v>10.37192209527207</v>
+        <v>2.709426202662331</v>
       </c>
       <c r="E177">
-        <v>4.369680023155484</v>
+        <v>6.096060987020104</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>5.786475687443138</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>10.18530827919439</v>
+        <v>44.42835953061616</v>
       </c>
       <c r="C178">
-        <v>1.849537726663969</v>
+        <v>18.05742625218492</v>
       </c>
       <c r="D178">
-        <v>10.2932007355551</v>
+        <v>2.652538010252258</v>
       </c>
       <c r="E178">
-        <v>4.333036894895918</v>
+        <v>6.024923356489676</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>5.75094206291861</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>10.14954815664986</v>
+        <v>44.3423274416755</v>
       </c>
       <c r="C179">
-        <v>1.807176013391944</v>
+        <v>18.02685975350285</v>
       </c>
       <c r="D179">
-        <v>10.21458356074496</v>
+        <v>2.595812530272624</v>
       </c>
       <c r="E179">
-        <v>4.296555396244014</v>
+        <v>5.954041833943497</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>5.715461817486932</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>10.11384694513287</v>
+        <v>44.25632800271651</v>
       </c>
       <c r="C180">
-        <v>1.765238653120444</v>
+        <v>17.99632234739222</v>
       </c>
       <c r="D180">
-        <v>10.13607080747544</v>
+        <v>2.539255284964542</v>
       </c>
       <c r="E180">
-        <v>4.26023595207419</v>
+        <v>5.883419200426401</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>5.680035299865116</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>10.07820469993456</v>
+        <v>44.17036123898602</v>
       </c>
       <c r="C181">
-        <v>1.723731987748678</v>
+        <v>17.96581402639277</v>
       </c>
       <c r="D181">
-        <v>10.05766271881848</v>
+        <v>2.482872050961827</v>
       </c>
       <c r="E181">
-        <v>4.224078985724885</v>
+        <v>5.813058282691897</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>5.644662862177046</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>10.0426214749593</v>
+        <v>44.08442717482544</v>
       </c>
       <c r="C182">
-        <v>1.682662409435998</v>
+        <v>17.93533478302544</v>
       </c>
       <c r="D182">
-        <v>9.979359544455438</v>
+        <v>2.426668887871315</v>
       </c>
       <c r="E182">
-        <v>4.188084918887406</v>
+        <v>5.742961953884102</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>5.609344860280169</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>10.00709732282853</v>
+        <v>43.99852583340579</v>
       </c>
       <c r="C183">
-        <v>1.642036353750433</v>
+        <v>17.90488460981456</v>
       </c>
       <c r="D183">
-        <v>9.901161540853625</v>
+        <v>2.370652220323357</v>
       </c>
       <c r="E183">
-        <v>4.152254171492599</v>
+        <v>5.673133133975947</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>5.574081653683304</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>9.971632294977775</v>
+        <v>43.91265723703106</v>
       </c>
       <c r="C184">
-        <v>1.601860292144154</v>
+        <v>17.87446349927356</v>
       </c>
       <c r="D184">
-        <v>9.823068971448103</v>
+        <v>2.314828751225896</v>
       </c>
       <c r="E184">
-        <v>4.116587161595376</v>
+        <v>5.603574790709022</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>5.538873605593222</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>9.936226441747076</v>
+        <v>43.82682140712563</v>
       </c>
       <c r="C185">
-        <v>1.562140723724993</v>
+        <v>17.84407144390521</v>
       </c>
       <c r="D185">
-        <v>9.745082106829171</v>
+        <v>2.259205554639663</v>
       </c>
       <c r="E185">
-        <v>4.081084305257106</v>
+        <v>5.534289939904309</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>5.503721083045115</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>9.900879812465408</v>
+        <v>43.7410183642221</v>
       </c>
       <c r="C186">
-        <v>1.522884166293361</v>
+        <v>17.81370843622519</v>
       </c>
       <c r="D186">
-        <v>9.667201224935717</v>
+        <v>2.203790128636386</v>
       </c>
       <c r="E186">
-        <v>4.045746016425865</v>
+        <v>5.465281646216188</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>5.468624456945582</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>9.865592455529583</v>
+        <v>43.65524812821074</v>
       </c>
       <c r="C187">
-        <v>1.484097146616499</v>
+        <v>17.78337446874367</v>
       </c>
       <c r="D187">
-        <v>9.589426611254716</v>
+        <v>2.148590312333015</v>
       </c>
       <c r="E187">
-        <v>4.010572706814576</v>
+        <v>5.396553023833667</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>5.433584102101443</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>9.830364418477952</v>
+        <v>43.56951071814049</v>
       </c>
       <c r="C188">
-        <v>1.445786189913386</v>
+        <v>17.75306953395941</v>
       </c>
       <c r="D188">
-        <v>9.511758559027156</v>
+        <v>2.093614413374827</v>
       </c>
       <c r="E188">
-        <v>3.975564785777063</v>
+        <v>5.328107236618011</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>5.3986003973236</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>9.795195748059262</v>
+        <v>43.48380615253042</v>
       </c>
       <c r="C189">
-        <v>1.407957808526372</v>
+        <v>17.72279362439619</v>
       </c>
       <c r="D189">
-        <v>9.434197369460682</v>
+        <v>2.038871227666755</v>
       </c>
       <c r="E189">
-        <v>3.94072266018216</v>
+        <v>5.259947499328051</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>5.363673725490187</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>9.760086490297141</v>
+        <v>43.39813444912872</v>
       </c>
       <c r="C190">
-        <v>1.370618489759536</v>
+        <v>17.69254673257472</v>
       </c>
       <c r="D190">
-        <v>9.356743351949213</v>
+        <v>1.984369979709284</v>
       </c>
       <c r="E190">
-        <v>3.906046734285427</v>
+        <v>5.192077077544091</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>5.32880447356108</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>9.725036690550388</v>
+        <v>43.31249562522766</v>
       </c>
       <c r="C191">
-        <v>1.333774682867105</v>
+        <v>17.66232885100866</v>
       </c>
       <c r="D191">
-        <v>9.27939682429988</v>
+        <v>1.930120465725328</v>
       </c>
       <c r="E191">
-        <v>3.871537409599046</v>
+        <v>5.124499288425937</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>5.293993032673375</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>9.690046393569412</v>
+        <v>43.2268896976739</v>
       </c>
       <c r="C192">
-        <v>1.297432785180446</v>
+        <v>17.63213997223738</v>
       </c>
       <c r="D192">
-        <v>9.202158112967579</v>
+        <v>1.876133057611996</v>
       </c>
       <c r="E192">
-        <v>3.837195084759707</v>
+        <v>5.057217501502955</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>5.259239798224463</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>9.655115643549122</v>
+        <v>43.1413166827488</v>
       </c>
       <c r="C193">
-        <v>1.261599127367772</v>
+        <v>17.60198008880242</v>
       </c>
       <c r="D193">
-        <v>9.125027553297452</v>
+        <v>1.822418725964079</v>
       </c>
       <c r="E193">
-        <v>3.803020155394389</v>
+        <v>4.990235138260677</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>5.224545169883351</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>9.620244484178457</v>
+        <v>43.05577659601976</v>
       </c>
       <c r="C194">
-        <v>1.22627995782504</v>
+        <v>17.57184919324778</v>
       </c>
       <c r="D194">
-        <v>9.048005489775676</v>
+        <v>1.768989104143235</v>
       </c>
       <c r="E194">
-        <v>3.769013013984226</v>
+        <v>4.923555673818979</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>5.189909551667837</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>9.585432958686827</v>
+        <v>42.9702694531432</v>
       </c>
       <c r="C195">
-        <v>1.191481426206612</v>
+        <v>17.54174727813757</v>
       </c>
       <c r="D195">
-        <v>8.971092276288882</v>
+        <v>1.715856521182385</v>
       </c>
       <c r="E195">
-        <v>3.735174049726331</v>
+        <v>4.857182636288628</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>5.155333352034474</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>9.550681109887671</v>
+        <v>42.88479526933757</v>
       </c>
       <c r="C196">
-        <v>1.157209566109702</v>
+        <v>17.51167433604459</v>
       </c>
       <c r="D196">
-        <v>8.894288276392576</v>
+        <v>1.663034053651346</v>
       </c>
       <c r="E196">
-        <v>3.701503648393736</v>
+        <v>4.791119607464337</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>5.120816983908348</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>9.515988980219301</v>
+        <v>42.79935405888366</v>
       </c>
       <c r="C197">
-        <v>1.123470276936316</v>
+        <v>17.48163035955135</v>
       </c>
       <c r="D197">
-        <v>8.817593863588989</v>
+        <v>1.610535580965079</v>
       </c>
       <c r="E197">
-        <v>3.668002192193438</v>
+        <v>4.725370223777019</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>5.086360864751309</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>9.481356611783253</v>
+        <v>42.7139458362445</v>
       </c>
       <c r="C198">
-        <v>1.090269304966603</v>
+        <v>17.45161534125826</v>
       </c>
       <c r="D198">
-        <v>8.74100942161469</v>
+        <v>1.558375847179967</v>
       </c>
       <c r="E198">
-        <v>3.634670059622471</v>
+        <v>4.659938175058753</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>5.051965416630077</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>9.446784046380303</v>
+        <v>42.62857061564477</v>
       </c>
       <c r="C199">
-        <v>1.057612223685112</v>
+        <v>17.42162927377889</v>
       </c>
       <c r="D199">
-        <v>8.664535344738468</v>
+        <v>1.506570513966588</v>
       </c>
       <c r="E199">
-        <v>3.601507625322237</v>
+        <v>4.594827206833778</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>5.017631066275612</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>9.412271325544273</v>
+        <v>42.54322841085568</v>
       </c>
       <c r="C200">
-        <v>1.025504413416245</v>
+        <v>17.39167214973891</v>
       </c>
       <c r="D200">
-        <v>8.588172038069855</v>
+        <v>1.45513625061598</v>
       </c>
       <c r="E200">
-        <v>3.568515259930945</v>
+        <v>4.530041118893772</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>4.98335824515146</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>9.377818490573807</v>
+        <v>42.45791923505314</v>
       </c>
       <c r="C201">
-        <v>0.9939510403344496</v>
+        <v>17.36174396178439</v>
       </c>
       <c r="D201">
-        <v>8.511919917878801</v>
+        <v>1.404090776732586</v>
       </c>
       <c r="E201">
-        <v>3.535693329934256</v>
+        <v>4.465583765814488</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>4.94914738949819</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>9.343425582562263</v>
+        <v>42.37264310169561</v>
       </c>
       <c r="C202">
-        <v>0.9629570349275086</v>
+        <v>17.33184470257654</v>
       </c>
       <c r="D202">
-        <v>8.435779411927127</v>
+        <v>1.353452976638994</v>
       </c>
       <c r="E202">
-        <v>3.503042197514266</v>
+        <v>4.401459058189378</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>4.914998940411658</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>9.309092642425783</v>
+        <v>42.28740002386963</v>
       </c>
       <c r="C203">
-        <v>0.9325270700048153</v>
+        <v>17.30197436478933</v>
       </c>
       <c r="D203">
-        <v>8.35975095981199</v>
+        <v>1.30324294153397</v>
       </c>
       <c r="E203">
-        <v>3.470562220396672</v>
+        <v>4.337670960182426</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>4.88091334391139</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>9.274819710929716</v>
+        <v>42.2021900142257</v>
       </c>
       <c r="C204">
-        <v>0.9026655383540025</v>
+        <v>17.27213294111981</v>
       </c>
       <c r="D204">
-        <v>8.283835013321024</v>
+        <v>1.253482098972593</v>
       </c>
       <c r="E204">
-        <v>3.438253751696353</v>
+        <v>4.27422349266002</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>4.846891050979246</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>9.240606828713506</v>
+        <v>42.11701308541074</v>
       </c>
       <c r="C205">
-        <v>0.8733765301643932</v>
+        <v>17.2423204242814</v>
       </c>
       <c r="D205">
-        <v>8.208032036802319</v>
+        <v>1.204193261184029</v>
       </c>
       <c r="E205">
-        <v>3.40611713976131</v>
+        <v>4.21112073070885</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>4.812932517640419</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>9.206454036314074</v>
+        <v>42.03186924991286</v>
       </c>
       <c r="C206">
-        <v>0.8446638103481178</v>
+        <v>17.21253680700201</v>
       </c>
       <c r="D206">
-        <v>8.132342507548181</v>
+        <v>1.155400768795711</v>
       </c>
       <c r="E206">
-        <v>3.374152728014988</v>
+        <v>4.148366803812682</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>4.779038205032801</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>9.172361374187869</v>
+        <v>41.94675852001715</v>
       </c>
       <c r="C207">
-        <v>0.8165307959022162</v>
+        <v>17.18278208203306</v>
       </c>
       <c r="D207">
-        <v>8.056766916192325</v>
+        <v>1.107130541899991</v>
       </c>
       <c r="E207">
-        <v>3.342360854797167</v>
+        <v>4.085965897525105</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>4.745208579446804</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>9.138328882731626</v>
+        <v>41.86168090780311</v>
       </c>
       <c r="C208">
-        <v>0.7889805334596518</v>
+        <v>17.15305624214378</v>
       </c>
       <c r="D208">
-        <v>7.981305767121845</v>
+        <v>1.059410239401409</v>
       </c>
       <c r="E208">
-        <v>3.310741853203296</v>
+        <v>4.023922249336328</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>4.711444112404777</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>9.10435660230193</v>
+        <v>41.77663642533364</v>
       </c>
       <c r="C209">
-        <v>0.7620156771993338</v>
+        <v>17.12335928012057</v>
       </c>
       <c r="D209">
-        <v>7.905959578906137</v>
+        <v>1.012269308737546</v>
       </c>
       <c r="E209">
-        <v>3.279296050922434</v>
+        <v>3.962240152886639</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>4.677745280736008</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>9.070444573233592</v>
+        <v>41.69162508453704</v>
       </c>
       <c r="C210">
-        <v>0.7356384673344093</v>
+        <v>17.09369118877255</v>
       </c>
       <c r="D210">
-        <v>7.830728884741943</v>
+        <v>0.9657391513971892</v>
       </c>
       <c r="E210">
-        <v>3.248023770073884</v>
+        <v>3.900923954120078</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>4.644112566610517</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>9.036592835857109</v>
+        <v>41.60664689714292</v>
       </c>
       <c r="C211">
-        <v>0.7098507092716864</v>
+        <v>17.06405196092827</v>
       </c>
       <c r="D211">
-        <v>7.755614232915352</v>
+        <v>0.9198531747289601</v>
       </c>
       <c r="E211">
-        <v>3.216925327042454</v>
+        <v>3.83997805089183</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>4.610546457621867</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>9.002801430515113</v>
+        <v>41.52170187487822</v>
       </c>
       <c r="C212">
-        <v>0.6846537537097296</v>
+        <v>17.03444158943549</v>
       </c>
       <c r="D212">
-        <v>7.68061618728164</v>
+        <v>0.8746469371592203</v>
       </c>
       <c r="E212">
-        <v>3.186001032312537</v>
+        <v>3.779406895276066</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>4.577047446869242</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>8.969070397577745</v>
+        <v>41.43679002940575</v>
       </c>
       <c r="C213">
-        <v>0.6600484778591761</v>
+        <v>17.00486006716448</v>
       </c>
       <c r="D213">
-        <v>7.6057353277646</v>
+        <v>0.830158212902069</v>
       </c>
       <c r="E213">
-        <v>3.155251190301013</v>
+        <v>3.719214987175134</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>4.543616032981427</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>8.935399777457169</v>
+        <v>41.35191137228033</v>
       </c>
       <c r="C214">
-        <v>0.6360352679603678</v>
+        <v>16.97530738700624</v>
       </c>
       <c r="D214">
-        <v>7.530972250875579</v>
+        <v>0.7864270707310048</v>
       </c>
       <c r="E214">
-        <v>3.124676099189027</v>
+        <v>3.65940687987997</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>4.510252720206523</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>8.901789610621384</v>
+        <v>41.26706591490994</v>
       </c>
       <c r="C215">
-        <v>0.6126140033198003</v>
+        <v>16.94578354187188</v>
       </c>
       <c r="D215">
-        <v>7.45632757025241</v>
+        <v>0.7434959946383667</v>
       </c>
       <c r="E215">
-        <v>3.094276050752792</v>
+        <v>3.599987174512642</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>4.476958018491341</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>8.868239937607255</v>
+        <v>41.1822536687897</v>
       </c>
       <c r="C216">
-        <v>0.5897840420479091</v>
+        <v>16.91628852469571</v>
       </c>
       <c r="D216">
-        <v>7.381801917220687</v>
+        <v>0.7014098074867506</v>
       </c>
       <c r="E216">
-        <v>3.064051330193394</v>
+        <v>3.54096051876499</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>4.443732443513607</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>8.834750799032779</v>
+        <v>41.09747464533611</v>
       </c>
       <c r="C217">
-        <v>0.5675442086909238</v>
+        <v>16.88682232843354</v>
       </c>
       <c r="D217">
-        <v>7.307395941377666</v>
+        <v>0.6602157087159515</v>
       </c>
       <c r="E217">
-        <v>3.03400221596574</v>
+        <v>3.482331610014447</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>4.410576516762927</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>8.801322235608625</v>
+        <v>41.01272885582648</v>
       </c>
       <c r="C218">
-        <v>0.5458927839349553</v>
+        <v>16.85738494606175</v>
       </c>
       <c r="D218">
-        <v>7.233110311200172</v>
+        <v>0.6199632223212799</v>
       </c>
       <c r="E218">
-        <v>3.004128979606738</v>
+        <v>3.424105186318555</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>4.377490765620139</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>8.767954288149072</v>
+        <v>40.92801631158944</v>
       </c>
       <c r="C219">
-        <v>0.5248274965470845</v>
+        <v>16.82797637058068</v>
       </c>
       <c r="D219">
-        <v>7.158945714676229</v>
+        <v>0.5807040652759617</v>
       </c>
       <c r="E219">
-        <v>2.974431885562724</v>
+        <v>3.366286032995266</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>4.344475723401846</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>8.734646997582328</v>
+        <v>40.84333702393666</v>
       </c>
       <c r="C220">
-        <v>0.5043455176941498</v>
+        <v>16.79859659501263</v>
       </c>
       <c r="D220">
-        <v>7.08490285996425</v>
+        <v>0.5424919349584099</v>
       </c>
       <c r="E220">
-        <v>2.944911191016312</v>
+        <v>3.308878975577887</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>4.311531929430753</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>8.701400404960319</v>
+        <v>40.75869100413777</v>
       </c>
       <c r="C221">
-        <v>0.4844434578138415</v>
+        <v>16.76924561240123</v>
       </c>
       <c r="D221">
-        <v>7.010982476079114</v>
+        <v>0.5053822557286783</v>
       </c>
       <c r="E221">
-        <v>2.915567145712688</v>
+        <v>3.25188887703015</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>4.278659929113953</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>8.668214551467873</v>
+        <v>40.67407826341152</v>
       </c>
       <c r="C222">
-        <v>0.4651173660584414</v>
+        <v>16.73992341581422</v>
       </c>
       <c r="D222">
-        <v>6.937185313606934</v>
+        <v>0.4694316347946027</v>
       </c>
       <c r="E222">
-        <v>2.886399991785464</v>
+        <v>3.195320641900625</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>4.245860273997845</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>8.635089478431416</v>
+        <v>40.58949881303361</v>
       </c>
       <c r="C223">
-        <v>0.4463627324767658</v>
+        <v>16.71062999834185</v>
       </c>
       <c r="D223">
-        <v>6.863512145449445</v>
+        <v>0.4346973446209567</v>
       </c>
       <c r="E223">
-        <v>2.857409963582212</v>
+        <v>3.139179204351123</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>4.213133521831949</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>8.602025227327196</v>
+        <v>40.504952664264</v>
       </c>
       <c r="C224">
-        <v>0.428174492948621</v>
+        <v>16.68136535309651</v>
       </c>
       <c r="D224">
-        <v>6.789963767601102</v>
+        <v>0.4012366255054495</v>
       </c>
       <c r="E224">
-        <v>2.828597287489727</v>
+        <v>3.083469535322112</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>4.180480236644255</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>8.569021839789055</v>
+        <v>40.42043982833727</v>
       </c>
       <c r="C225">
-        <v>0.4105470369076306</v>
+        <v>16.65212947321467</v>
       </c>
       <c r="D225">
-        <v>6.716540999959361</v>
+        <v>0.3691057764005256</v>
       </c>
       <c r="E225">
-        <v>2.799962181759166</v>
+        <v>3.028196634295526</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>4.147900988802829</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>8.536079357615755</v>
+        <v>40.33596031652757</v>
       </c>
       <c r="C226">
-        <v>0.3934742178449611</v>
+        <v>16.62292235185582</v>
       </c>
       <c r="D226">
-        <v>6.643244687168743</v>
+        <v>0.3383590483186963</v>
       </c>
       <c r="E226">
-        <v>2.771504856331139</v>
+        <v>2.97336552427017</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>4.11539635507802</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>8.503197822777896</v>
+        <v>40.25151414013047</v>
       </c>
       <c r="C227">
-        <v>0.3769493665576866</v>
+        <v>16.5937439822022</v>
       </c>
       <c r="D227">
-        <v>6.570075699502641</v>
+        <v>0.3090473733022124</v>
       </c>
       <c r="E227">
-        <v>2.743225512660877</v>
+        <v>2.918981257156921</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>4.082966918712834</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>8.470377277424472</v>
+        <v>40.16710131045324</v>
       </c>
       <c r="C228">
-        <v>0.3609653070725077</v>
+        <v>16.56459435746022</v>
       </c>
       <c r="D228">
-        <v>6.497034933783712</v>
+        <v>0.2812169425046656</v>
       </c>
       <c r="E228">
-        <v>2.715124343543571</v>
+        <v>2.865048898501111</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>4.050613269487527</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>8.437617763889032</v>
+        <v>40.08272183880792</v>
       </c>
       <c r="C229">
-        <v>0.3455143751488772</v>
+        <v>16.53547347085972</v>
       </c>
       <c r="D229">
-        <v>6.424123314345313</v>
+        <v>0.2549076542186376</v>
       </c>
       <c r="E229">
-        <v>2.687201532940004</v>
+        <v>2.811573534806906</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>4.018336003785343</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>8.404919324695511</v>
+        <v>39.99837573657534</v>
       </c>
       <c r="C230">
-        <v>0.3305884392281439</v>
+        <v>16.50638131565368</v>
       </c>
       <c r="D230">
-        <v>6.351341794033555</v>
+        <v>0.2301514876210954</v>
       </c>
       <c r="E230">
-        <v>2.6594572558026</v>
+        <v>2.758560264341386</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>3.986135724655286</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>8.37228200256374</v>
+        <v>39.91406301516425</v>
       </c>
       <c r="C231">
-        <v>0.3161789236718981</v>
+        <v>16.47731788511944</v>
       </c>
       <c r="D231">
-        <v>6.278691355256835</v>
+        <v>0.20697089126038</v>
       </c>
       <c r="E231">
-        <v>2.63189167790198</v>
+        <v>2.706014189250883</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>3.954013041875457</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>8.33970584041462</v>
+        <v>39.82978368598854</v>
       </c>
       <c r="C232">
-        <v>0.3022768341073034</v>
+        <v>16.44828317255807</v>
       </c>
       <c r="D232">
-        <v>6.206173011081758</v>
+        <v>0.1853772956398018</v>
       </c>
       <c r="E232">
-        <v>2.604504955654178</v>
+        <v>2.653940422245958</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>3.921968572028776</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>8.307190881375023</v>
+        <v>39.74553776053394</v>
       </c>
       <c r="C233">
-        <v>0.2888727846695297</v>
+        <v>16.41927717129406</v>
       </c>
       <c r="D233">
-        <v>6.133787806378942</v>
+        <v>0.1653698595365611</v>
       </c>
       <c r="E233">
-        <v>2.577297235948629</v>
+        <v>2.602344067918465</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>3.89000293855479</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>8.274737168782398</v>
+        <v>39.66132525033645</v>
       </c>
       <c r="C234">
-        <v>0.275957026914661</v>
+        <v>16.39029987467643</v>
       </c>
       <c r="D234">
-        <v>6.061536819020193</v>
+        <v>0.1469345484607422</v>
       </c>
       <c r="E234">
-        <v>2.55026865597702</v>
+        <v>2.551230229586829</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>3.858116771806583</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>8.242344746189124</v>
+        <v>39.57714616697213</v>
       </c>
       <c r="C235">
-        <v>0.2635194801605679</v>
+        <v>16.36135127607819</v>
       </c>
       <c r="D235">
-        <v>5.989421161132956</v>
+        <v>0.1300437487123329</v>
       </c>
       <c r="E235">
-        <v>2.52341934306322</v>
+        <v>2.500603999504856</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>3.826310709144027</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>8.210013657366588</v>
+        <v>39.49300052205108</v>
       </c>
       <c r="C236">
-        <v>0.2515497629980524</v>
+        <v>16.33243136889599</v>
       </c>
       <c r="D236">
-        <v>5.91744198041288</v>
+        <v>0.1146563979536544</v>
       </c>
       <c r="E236">
-        <v>2.496749414494291</v>
+        <v>2.450470447651515</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>3.794585394971062</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>8.17774394630904</v>
+        <v>39.40888832727099</v>
       </c>
       <c r="C237">
-        <v>0.2400372257089284</v>
+        <v>16.30354014655117</v>
       </c>
       <c r="D237">
-        <v>5.845600461496073</v>
+        <v>0.1007185938024265</v>
       </c>
       <c r="E237">
-        <v>2.470258977352837</v>
+        <v>2.400834629485275</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>3.762941480780365</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>8.145535657237204</v>
+        <v>39.32480959438145</v>
       </c>
       <c r="C238">
-        <v>0.2289709833224332</v>
+        <v>16.27467760248921</v>
       </c>
       <c r="D238">
-        <v>5.773897827397762</v>
+        <v>0.08816487755975298</v>
       </c>
       <c r="E238">
-        <v>2.443948128350767</v>
+        <v>2.351701564174606</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>3.73137962527182</v>
       </c>
     </row>
   </sheetData>
